--- a/main/ig/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/main/ig/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:32:57+00:00</t>
+    <t>2024-04-30T14:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/main/ig/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:33:35+00:00</t>
+    <t>2024-05-02T07:44:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
